--- a/bin/mia-result/02_Data_1/Data_1.xlsx
+++ b/bin/mia-result/02_Data_1/Data_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7361bdf95a53a600/Dokumente/Nic_Stuff/GitHub/MIALab_project/bin/mia-result/02_Data_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634d2c18404eb9fd/Dokumente/GitHub/MIALab_project/bin/mia-result/02_Data_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{B7DE338C-07FD-440A-881D-44DCE8F1F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EF9EF80-439A-45B9-924E-9126063B8F83}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:40009_{B7DE338C-07FD-440A-881D-44DCE8F1F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3FD360B-B48F-4922-8D6A-669DDC25D41D}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="390" windowWidth="14850" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12870" yWindow="-18405" windowWidth="5760" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="31">
   <si>
     <t>SUBJECT</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>WhiteMatter-PP</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Overall PP</t>
   </si>
 </sst>
 </file>
@@ -958,15 +964,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U16" activeCellId="4" sqref="M16 O16 Q16 S16 U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="21" max="21" width="15.58984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,8 +1030,14 @@
       <c r="U1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>117122</v>
       </c>
@@ -1093,7 +1108,7 @@
         <v>0.83194376037974005</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>117122</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>0.84356042818672305</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>117122</v>
       </c>
@@ -1231,7 +1246,7 @@
         <v>0.83315969731186401</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>117122</v>
       </c>
@@ -1298,7 +1313,7 @@
         <v>0.84872629249556497</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>117122</v>
       </c>
@@ -1369,7 +1384,7 @@
         <v>0.8582176653793</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1411,7 @@
         <v>8.7537907929773288E-3</v>
       </c>
       <c r="J7">
-        <f xml:space="preserve"> _xlfn.STDEV.S(C3,C13,C23,C33,C43,C53,C63,C73,C83,C93,C103)</f>
+        <f xml:space="preserve"> _xlfn.STDEV.S(C3,C13,C23,C33,C43,C53,C63,C73,C83,C93)</f>
         <v>8.4690458747613481E-3</v>
       </c>
       <c r="L7">
@@ -1440,7 +1455,7 @@
         <v>0.84681995876619198</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>0.83158281188527305</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1589,7 @@
         <v>0.86125513408590204</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>0.84380508951961397</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>0.81048103462965804</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>118528</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>4.8164763089230478</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>118528</v>
       </c>
@@ -1810,7 +1825,7 @@
         <v>0.84095518726398311</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>118528</v>
       </c>
@@ -1841,7 +1856,7 @@
         <v>0.74734243850424564</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>118528</v>
       </c>
@@ -1871,8 +1886,38 @@
         <f>_xlfn.STDEV.S(C5,C15,C25,C35,C45,C55,C65,C75,C85,C95,C105)</f>
         <v>3.2515316155111731E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>118528</v>
       </c>
@@ -1898,8 +1943,48 @@
         <f>AVERAGE(D10,D20,D30,D40,D50,D60,D70,D80,D90,D100)</f>
         <v>4.4222146082750537</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f xml:space="preserve"> _xlfn.STDEV.S(L2:L11)</f>
+        <v>5.2550071901294591E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:U16" si="1" xml:space="preserve"> _xlfn.STDEV.S(M2:M11)</f>
+        <v>4.545485490869805E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8.4690458747613481E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>8.7537907929773288E-3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>2.1900714044730114E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>2.8436322611126372E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>3.2515316155111731E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>3.1742010897931786E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>2.0145186737877872E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>1.4825903432031762E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1926,7 +2011,7 @@
         <v>0.77747308517808289</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +2042,7 @@
         <v>0.8249750427971092</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1988,7 +2073,7 @@
         <v>2.0145186737877872E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2100,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2042,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>118730</v>
       </c>
@@ -2056,7 +2141,7 @@
         <v>11.6619037896906</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>118730</v>
       </c>
@@ -2070,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>118730</v>
       </c>
@@ -2084,7 +2169,7 @@
         <v>11.401754250991299</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>118730</v>
       </c>
@@ -2098,7 +2183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>118730</v>
       </c>
@@ -2112,7 +2197,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2126,7 +2211,7 @@
         <v>4.6904157598234297</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2140,7 +2225,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2239,7 @@
         <v>5.3851648071345002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2168,7 +2253,7 @@
         <v>5.4772255750516603</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2267,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>118932</v>
       </c>
@@ -2196,7 +2281,7 @@
         <v>12.7279220613578</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>118932</v>
       </c>
@@ -2210,7 +2295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>118932</v>
       </c>
@@ -2224,7 +2309,7 @@
         <v>13.379088160259601</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>118932</v>
       </c>
@@ -2238,7 +2323,7 @@
         <v>14.866068747318501</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>118932</v>
       </c>
@@ -2252,7 +2337,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2351,7 @@
         <v>9.89949493661166</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2365,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +2379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2308,7 +2393,7 @@
         <v>4.4721359549995796</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +2407,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>120111</v>
       </c>
@@ -2336,7 +2421,7 @@
         <v>9.4868329805051292</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>120111</v>
       </c>
@@ -2350,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>120111</v>
       </c>
@@ -2364,7 +2449,7 @@
         <v>11.916375287812899</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>120111</v>
       </c>
@@ -2378,7 +2463,7 @@
         <v>15.937377450509199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>120111</v>
       </c>
@@ -2392,7 +2477,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2406,7 +2491,7 @@
         <v>5.3851648071345002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2420,7 +2505,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2519,7 @@
         <v>4.4721359549995796</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2448,7 +2533,7 @@
         <v>5.7445626465380197</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2462,7 +2547,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>122317</v>
       </c>
@@ -2476,7 +2561,7 @@
         <v>13.3416640641263</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>122317</v>
       </c>
@@ -2490,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>122317</v>
       </c>
@@ -2504,7 +2589,7 @@
         <v>13.076696830622</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>122317</v>
       </c>
@@ -2518,7 +2603,7 @@
         <v>14.0356688476181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>122317</v>
       </c>
@@ -2532,7 +2617,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2546,7 +2631,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2560,7 +2645,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2574,7 +2659,7 @@
         <v>4.4721359549995796</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2588,7 +2673,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2602,7 +2687,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>122620</v>
       </c>
@@ -2616,7 +2701,7 @@
         <v>13.1529464379659</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63">
         <v>122620</v>
       </c>
@@ -2630,7 +2715,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64">
         <v>122620</v>
       </c>
@@ -2644,7 +2729,7 @@
         <v>14.212670403551799</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A65">
         <v>122620</v>
       </c>
@@ -2658,7 +2743,7 @@
         <v>12.5299640861416</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66">
         <v>122620</v>
       </c>
@@ -2672,7 +2757,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2686,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2700,7 +2785,7 @@
         <v>3.74165738677394</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2714,7 +2799,7 @@
         <v>4.5825756949558398</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2728,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2742,7 +2827,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72">
         <v>123117</v>
       </c>
@@ -2756,7 +2841,7 @@
         <v>13.076696830622</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73">
         <v>123117</v>
       </c>
@@ -2770,7 +2855,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74">
         <v>123117</v>
       </c>
@@ -2784,7 +2869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75">
         <v>123117</v>
       </c>
@@ -2798,7 +2883,7 @@
         <v>16.7928556237466</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76">
         <v>123117</v>
       </c>
@@ -2812,7 +2897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2826,7 +2911,7 @@
         <v>11.045361017187201</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2840,7 +2925,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2854,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2868,7 +2953,7 @@
         <v>4.5825756949558398</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2882,7 +2967,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82">
         <v>123925</v>
       </c>
@@ -2896,7 +2981,7 @@
         <v>11.575836902790201</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83">
         <v>123925</v>
       </c>
@@ -2910,7 +2995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84">
         <v>123925</v>
       </c>
@@ -2924,7 +3009,7 @@
         <v>13.4164078649987</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85">
         <v>123925</v>
       </c>
@@ -2938,7 +3023,7 @@
         <v>14.247806848774999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86">
         <v>123925</v>
       </c>
@@ -2952,7 +3037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2966,7 +3051,7 @@
         <v>8.6023252670426196</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -2980,7 +3065,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -2994,7 +3079,7 @@
         <v>5.0990195135927801</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -3008,7 +3093,7 @@
         <v>4.5825756949558398</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -3022,7 +3107,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92">
         <v>124422</v>
       </c>
@@ -3036,7 +3121,7 @@
         <v>11.575836902790201</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93">
         <v>124422</v>
       </c>
@@ -3050,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A94">
         <v>124422</v>
       </c>
@@ -3064,7 +3149,7 @@
         <v>11.874342087037901</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A95">
         <v>124422</v>
       </c>
@@ -3078,7 +3163,7 @@
         <v>14.560219778561001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A96">
         <v>124422</v>
       </c>
@@ -3092,7 +3177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -3120,7 +3205,7 @@
         <v>5.0990195135927801</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -3134,7 +3219,7 @@
         <v>4.4721359549995796</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -3148,7 +3233,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>18</v>
       </c>
